--- a/data/trans_orig/P25F_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3649FA60-7DF0-409A-B34B-5BF248B1748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E8ED39E-AC52-4D2D-B36C-CC5105A13C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86C4AAFA-D8EC-4E70-B1F4-49087933E196}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D29B8668-C6E6-4A47-A4E8-E864D5147F35}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="220">
   <si>
     <t>Población según el modo de empleo para el que utilizan los cigarrillos electrónicos en 2023 (Tasa respuesta: 1,51%)</t>
   </si>
@@ -119,589 +119,580 @@
     <t>38,19%</t>
   </si>
   <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>49,26%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>15,27%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>26,88%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>23,05%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
+    <t>35,29%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1116,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DC6DC2-3DA1-48A7-BBCE-844844D7D1DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054E7AF0-6E1A-4414-B424-06CE6EFAAAF8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2254,13 +2245,13 @@
         <v>160</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2269,13 +2260,13 @@
         <v>4713</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -2284,13 +2275,13 @@
         <v>4873</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,13 +2296,13 @@
         <v>6157</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2320,13 +2311,13 @@
         <v>2673</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2335,13 +2326,13 @@
         <v>8831</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2347,13 @@
         <v>4897</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2371,13 +2362,13 @@
         <v>8425</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2386,13 +2377,13 @@
         <v>13322</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,7 +2439,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2460,13 +2451,13 @@
         <v>1127</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2475,13 +2466,13 @@
         <v>480</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -2490,13 +2481,13 @@
         <v>1607</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,13 +2502,13 @@
         <v>10580</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2526,13 +2517,13 @@
         <v>5691</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -2541,13 +2532,13 @@
         <v>16271</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,13 +2553,13 @@
         <v>5633</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2577,13 +2568,13 @@
         <v>4136</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2592,13 +2583,13 @@
         <v>9769</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,13 +2604,13 @@
         <v>2300</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -2631,10 +2622,10 @@
         <v>104</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -2643,13 +2634,13 @@
         <v>5851</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2655,13 @@
         <v>7571</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -2679,13 +2670,13 @@
         <v>4335</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -2694,13 +2685,13 @@
         <v>11905</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,13 +2759,13 @@
         <v>3639</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2783,13 +2774,13 @@
         <v>4991</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -2798,13 +2789,13 @@
         <v>8630</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,13 +2810,13 @@
         <v>44186</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H35" s="7">
         <v>14</v>
@@ -2834,13 +2825,13 @@
         <v>15323</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M35" s="7">
         <v>38</v>
@@ -2849,13 +2840,13 @@
         <v>59509</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2861,13 @@
         <v>14421</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -2885,13 +2876,13 @@
         <v>14073</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M36" s="7">
         <v>28</v>
@@ -2900,13 +2891,13 @@
         <v>28495</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2912,13 @@
         <v>10419</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -2936,13 +2927,13 @@
         <v>7759</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M37" s="7">
         <v>17</v>
@@ -2951,13 +2942,13 @@
         <v>18178</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2963,13 @@
         <v>21771</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H38" s="7">
         <v>24</v>
@@ -2987,13 +2978,13 @@
         <v>20779</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -3002,13 +2993,13 @@
         <v>42549</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,7 +3055,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25F_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E8ED39E-AC52-4D2D-B36C-CC5105A13C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5788658-C281-4212-B7A1-FE05A30F7EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D29B8668-C6E6-4A47-A4E8-E864D5147F35}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A39329A8-A74D-46FE-A375-DBBF7A41C121}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -104,7 +104,7 @@
     <t>Como sustituto del tabaco</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -203,7 +203,7 @@
     <t>63,04%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>8,05%</t>
@@ -323,7 +323,7 @@
     <t>37,74%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -1107,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054E7AF0-6E1A-4414-B424-06CE6EFAAAF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0421DA-AB70-43CA-8774-7F6B9A1F2226}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P25F_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5788658-C281-4212-B7A1-FE05A30F7EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF13A666-25C5-4B25-89F7-71466DD9DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A39329A8-A74D-46FE-A375-DBBF7A41C121}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F368567E-187A-4825-9442-4D01FC135111}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="223">
   <si>
     <t>Población según el modo de empleo para el que utilizan los cigarrillos electrónicos en 2023 (Tasa respuesta: 1,51%)</t>
   </si>
@@ -119,580 +119,589 @@
     <t>38,19%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>27,14%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>48,8%</t>
+    <t>52,31%</t>
   </si>
   <si>
     <t>47,99%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>23,56%</t>
   </si>
   <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
+    <t>50,62%</t>
   </si>
   <si>
     <t>22,74%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>27,82%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>46,79%</t>
   </si>
   <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
   </si>
   <si>
     <t>37,82%</t>
   </si>
   <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>23,05%</t>
   </si>
   <si>
-    <t>35,29%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1107,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0421DA-AB70-43CA-8774-7F6B9A1F2226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC7B3D3-6920-4501-BBF2-4F5CDEFC1B93}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2245,13 +2254,13 @@
         <v>160</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2260,13 +2269,13 @@
         <v>4713</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -2275,13 +2284,13 @@
         <v>4873</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2305,13 @@
         <v>6157</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2311,13 +2320,13 @@
         <v>2673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2326,13 +2335,13 @@
         <v>8831</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2356,13 @@
         <v>4897</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2362,13 +2371,13 @@
         <v>8425</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2377,13 +2386,13 @@
         <v>13322</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,7 +2448,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2451,13 +2460,13 @@
         <v>1127</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2466,13 +2475,13 @@
         <v>480</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -2481,13 +2490,13 @@
         <v>1607</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2511,13 @@
         <v>10580</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2517,13 +2526,13 @@
         <v>5691</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -2532,13 +2541,13 @@
         <v>16271</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2562,13 @@
         <v>5633</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2568,13 +2577,13 @@
         <v>4136</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2583,13 +2592,13 @@
         <v>9769</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2613,13 @@
         <v>2300</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -2622,10 +2631,10 @@
         <v>104</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -2634,13 +2643,13 @@
         <v>5851</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2664,13 @@
         <v>7571</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -2670,13 +2679,13 @@
         <v>4335</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -2685,13 +2694,13 @@
         <v>11905</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2768,13 @@
         <v>3639</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2774,13 +2783,13 @@
         <v>4991</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -2789,13 +2798,13 @@
         <v>8630</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2819,13 @@
         <v>44186</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H35" s="7">
         <v>14</v>
@@ -2825,13 +2834,13 @@
         <v>15323</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M35" s="7">
         <v>38</v>
@@ -2840,13 +2849,13 @@
         <v>59509</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2870,13 @@
         <v>14421</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -2876,13 +2885,13 @@
         <v>14073</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M36" s="7">
         <v>28</v>
@@ -2891,13 +2900,13 @@
         <v>28495</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2921,13 @@
         <v>10419</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -2927,13 +2936,13 @@
         <v>7759</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M37" s="7">
         <v>17</v>
@@ -2942,13 +2951,13 @@
         <v>18178</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2972,13 @@
         <v>21771</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H38" s="7">
         <v>24</v>
@@ -2978,13 +2987,13 @@
         <v>20779</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -2993,13 +3002,13 @@
         <v>42549</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,7 +3064,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25F_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF13A666-25C5-4B25-89F7-71466DD9DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B82649E3-81E4-4B87-87EF-59A3F0402992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F368567E-187A-4825-9442-4D01FC135111}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AD019A2E-DC53-4E0D-BC15-9355B7C4461D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="214">
   <si>
     <t>Población según el modo de empleo para el que utilizan los cigarrillos electrónicos en 2023 (Tasa respuesta: 1,51%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -77,631 +77,604 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>Por probar</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>Para reducir el consumo del tabaco tradicional</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>Para dejar de fumar</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>Como sustituto del tabaco</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Para reducir el consumo del tabaco tradicional</t>
-  </si>
-  <si>
-    <t>Para dejar de fumar</t>
-  </si>
-  <si>
-    <t>Como sustituto del tabaco</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>61,52%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1116,8 +1089,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC7B3D3-6920-4501-BBF2-4F5CDEFC1B93}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0177959A-04DE-4B21-8685-CB331E90E2AD}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1251,12 +1224,14 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1274,203 +1249,211 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>2973</v>
+        <v>12434</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>2973</v>
+        <v>12435</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2202</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>4197</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1793</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>613</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2406</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>4028</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2015</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>6043</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1479,304 +1462,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>2973</v>
+        <v>20250</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4830</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N9" s="7">
-        <v>2973</v>
+        <v>25080</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>2708</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>2499</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>5206</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>5064</v>
+        <v>18375</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>4449</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>5064</v>
+        <v>22824</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>1804</v>
+        <v>7283</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>2591</v>
+        <v>2352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>4395</v>
+        <v>9634</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1962</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>2688</v>
+        <v>699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>4430</v>
+        <v>4684</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>2082</v>
+        <v>5362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>6512</v>
+        <v>10046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,306 +1770,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7">
-        <v>13259</v>
+        <v>33050</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="7">
         <v>18</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="7">
-        <v>8</v>
-      </c>
       <c r="I15" s="7">
-        <v>5399</v>
+        <v>15360</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N15" s="7">
-        <v>18658</v>
+        <v>48410</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
-        <v>2512</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
       <c r="I16" s="7">
-        <v>2733</v>
+        <v>1696</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>5245</v>
+        <v>1696</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>16989</v>
+        <v>8469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>5366</v>
+        <v>4137</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>22355</v>
+        <v>12606</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>6825</v>
+        <v>170</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>2633</v>
+        <v>3891</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>9458</v>
+        <v>4060</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>6224</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>808</v>
+        <v>2401</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>808</v>
+        <v>8625</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>4874</v>
+        <v>4876</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>5937</v>
+        <v>7197</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>10811</v>
+        <v>12073</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,306 +2078,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D21" s="7">
-        <v>31200</v>
+        <v>19738</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
       </c>
       <c r="I21" s="7">
-        <v>17477</v>
+        <v>19322</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N21" s="7">
-        <v>48677</v>
+        <v>39060</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1091</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>1778</v>
+        <v>436</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1778</v>
+        <v>1527</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>8580</v>
+        <v>11183</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7">
-        <v>4266</v>
+        <v>5231</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N23" s="7">
-        <v>12847</v>
+        <v>16414</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>160</v>
+        <v>4915</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>4713</v>
+        <v>3686</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N24" s="7">
-        <v>4873</v>
+        <v>8601</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>6157</v>
+        <v>2288</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>2673</v>
+        <v>3153</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>8831</v>
+        <v>5441</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>4897</v>
+        <v>7205</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
       </c>
       <c r="I26" s="7">
-        <v>8425</v>
+        <v>3970</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N26" s="7">
-        <v>13322</v>
+        <v>11175</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,306 +2386,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D27" s="7">
-        <v>19794</v>
+        <v>26681</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I27" s="7">
-        <v>21855</v>
+        <v>16477</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N27" s="7">
-        <v>41650</v>
+        <v>43158</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>1127</v>
+        <v>3798</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I28" s="7">
-        <v>480</v>
+        <v>4631</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N28" s="7">
-        <v>1607</v>
+        <v>8429</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D29" s="7">
-        <v>10580</v>
+        <v>50461</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I29" s="7">
-        <v>5691</v>
+        <v>13818</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N29" s="7">
-        <v>16271</v>
+        <v>64279</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>5633</v>
+        <v>14362</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I30" s="7">
-        <v>4136</v>
+        <v>12130</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N30" s="7">
-        <v>9769</v>
+        <v>26492</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7">
-        <v>2300</v>
+        <v>10304</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="H31" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I31" s="7">
-        <v>3551</v>
+        <v>6866</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="M31" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N31" s="7">
-        <v>5851</v>
+        <v>17170</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D32" s="7">
-        <v>7571</v>
+        <v>20793</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="H32" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I32" s="7">
-        <v>4335</v>
+        <v>18544</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N32" s="7">
-        <v>11905</v>
+        <v>39337</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,370 +2694,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D33" s="7">
-        <v>27210</v>
+        <v>99719</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I33" s="7">
-        <v>18193</v>
+        <v>55989</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="N33" s="7">
-        <v>45403</v>
+        <v>155708</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>3</v>
-      </c>
-      <c r="D34" s="7">
-        <v>3639</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H34" s="7">
-        <v>4</v>
-      </c>
-      <c r="I34" s="7">
-        <v>4991</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M34" s="7">
-        <v>7</v>
-      </c>
-      <c r="N34" s="7">
-        <v>8630</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="7">
-        <v>24</v>
-      </c>
-      <c r="D35" s="7">
-        <v>44186</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="7">
-        <v>14</v>
-      </c>
-      <c r="I35" s="7">
-        <v>15323</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M35" s="7">
-        <v>38</v>
-      </c>
-      <c r="N35" s="7">
-        <v>59509</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="7">
-        <v>13</v>
-      </c>
-      <c r="D36" s="7">
-        <v>14421</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" s="7">
-        <v>15</v>
-      </c>
-      <c r="I36" s="7">
-        <v>14073</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M36" s="7">
-        <v>28</v>
-      </c>
-      <c r="N36" s="7">
-        <v>28495</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="7">
-        <v>7</v>
-      </c>
-      <c r="D37" s="7">
-        <v>10419</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H37" s="7">
-        <v>10</v>
-      </c>
-      <c r="I37" s="7">
-        <v>7759</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M37" s="7">
-        <v>17</v>
-      </c>
-      <c r="N37" s="7">
-        <v>18178</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="7">
-        <v>18</v>
-      </c>
-      <c r="D38" s="7">
-        <v>21771</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="A34" t="s">
         <v>213</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38" s="7">
-        <v>24</v>
-      </c>
-      <c r="I38" s="7">
-        <v>20779</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M38" s="7">
-        <v>42</v>
-      </c>
-      <c r="N38" s="7">
-        <v>42549</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>65</v>
-      </c>
-      <c r="D39" s="7">
-        <v>94436</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="7">
-        <v>67</v>
-      </c>
-      <c r="I39" s="7">
-        <v>62925</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" s="7">
-        <v>132</v>
-      </c>
-      <c r="N39" s="7">
-        <v>157361</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>222</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
